--- a/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
+++ b/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -41,22 +41,16 @@
     <t xml:space="preserve">Chức vụ</t>
   </si>
   <si>
-    <t xml:space="preserve">Bộ phận</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vị trí bộ phận</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trạng thái</t>
   </si>
   <si>
-    <t xml:space="preserve">Võ Van Chính</t>
+    <t xml:space="preserve">Võ Văn Chính</t>
   </si>
   <si>
     <t xml:space="preserve">0373449865</t>
   </si>
   <si>
-    <t xml:space="preserve">Qu?ng Tr?-Tri?u Phong-Tri?u Ð?i</t>
+    <t xml:space="preserve">Quảng Trị-Triệu Phong-Triệu Đại</t>
   </si>
   <si>
     <t xml:space="preserve">123456789</t>
@@ -68,22 +62,34 @@
     <t xml:space="preserve">0001-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">còn làm vi?c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Khánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tỉnh Lai Châu-Huyện Tam Đường-Xã Giang Ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1233218</t>
+    <t xml:space="preserve">Hoạt động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dụng Nguyễn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03256457895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Tuyên Quang-Thành phố Tuyên Quang-Phường Nông Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245365875</t>
   </si>
   <si>
     <t xml:space="preserve">Đang hoạt động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Khôi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Lào Cai-Huyện Bát Xát-Xã A Mú Sung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123321562</t>
   </si>
 </sst>
 </file>
@@ -162,14 +168,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -177,151 +177,95 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
+++ b/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
@@ -65,31 +65,31 @@
     <t xml:space="preserve">Hoạt động</t>
   </si>
   <si>
-    <t xml:space="preserve">Dụng Nguyễn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03256457895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tỉnh Tuyên Quang-Thành phố Tuyên Quang-Phường Nông Tiến</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245365875</t>
+    <t xml:space="preserve">Nguyễn Khôi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Cao Bằng-Huyện Bảo Lâm-Xã Vĩnh Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245236587</t>
   </si>
   <si>
     <t xml:space="preserve">Đang hoạt động</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Khôi</t>
+    <t xml:space="preserve">Trần Khánh</t>
   </si>
   <si>
     <t xml:space="preserve">123456</t>
   </si>
   <si>
-    <t xml:space="preserve">Tỉnh Lào Cai-Huyện Bát Xát-Xã A Mú Sung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123321562</t>
+    <t xml:space="preserve">Tỉnh Hà Giang-Huyện Vị Xuyên-Thị trấn Nông Trường Việt Lâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123321658</t>
   </si>
 </sst>
 </file>

--- a/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
+++ b/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">2345</t>
   </si>
   <si>
-    <t xml:space="preserve">Tỉnh Cao Bằng-Huyện Bảo Lâm-Xã Vĩnh Quang</t>
+    <t xml:space="preserve">Tỉnh Cao Bằng-Huyện Bảo Lạc-Xã Cô Ba</t>
   </si>
   <si>
     <t xml:space="preserve">245236587</t>
@@ -90,6 +90,75 @@
   </si>
   <si>
     <t xml:space="preserve">123321658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Lào Cai-Huyện Mường Khương-Xã Dìn Chin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123469658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamehay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Cao Bằng-Huyện Trùng Khánh-Xã Quang Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254632578996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hahaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Bắc Kạn-Huyện Ba Bể-Xã Cao Thượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256336425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chính võssssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Bắc Kạn-Huyện Ba Bể-Xã Hà Hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123468568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chính võs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Cao Bằng-Huyện Trùng Khánh-Xã Quang Trung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kakakka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1452367589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Tuyên Quang-Huyện Na Hang-Xã Sinh Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123469658975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helooooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Bắc Kạn-Huyện Ngân Sơn-Xã Cốc Đán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123469685</t>
   </si>
 </sst>
 </file>
@@ -230,7 +299,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
@@ -265,6 +334,230 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
         <v>21</v>
       </c>
     </row>

--- a/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
+++ b/QuanLyKhachSan_MVC.NET/nhanViens.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t xml:space="preserve">123469685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam Lê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉnh Lai Châu-Huyện Than Uyên-Xã Pha Mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123321576</t>
   </si>
 </sst>
 </file>
@@ -561,6 +570,38 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
